--- a/bid-service/bid-soybean/src/main/resources/model/annex1.xlsx
+++ b/bid-service/bid-soybean/src/main/resources/model/annex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbc/Development/teleinfo/bid-admin/bid-service/bid-soybean/src/main/resources/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6662D12-1505-4247-9C31-C0A013134C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C6416-03EB-A245-B1D5-9C08C5229D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="7160" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7160" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annex" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>当日新增来工作地人员总数</t>
   </si>
   <si>
-    <t>来工作地人员累计总数(含当日新增) (A)</t>
-  </si>
-  <si>
     <t>从湖北省或途径湖北来工作地员工人数</t>
   </si>
   <si>
@@ -168,6 +165,10 @@
   </si>
   <si>
     <t>居住小区是否有疑似病例、确诊病例</t>
+  </si>
+  <si>
+    <t>在工作地人员累计总数(含当日新增) (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -266,10 +267,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -277,6 +274,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -619,238 +620,238 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="56.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="58.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="46" style="4" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="29.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="35.1640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="26.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="28" style="4" customWidth="1"/>
-    <col min="18" max="18" width="25.1640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="70.6640625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="39.6640625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="70.5" style="4" customWidth="1"/>
-    <col min="26" max="26" width="35.6640625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="29.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.5" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="56.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="58.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="46" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="35.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="28" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.1640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="70.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="39.6640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="70.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="35.6640625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.5" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="7" customFormat="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:27" s="5" customFormat="1">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="6" t="s">
+      <c r="V5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="W5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="Y5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Z5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AA5" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/bid-service/bid-soybean/src/main/resources/model/annex1.xlsx
+++ b/bid-service/bid-soybean/src/main/resources/model/annex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbc/Development/teleinfo/bid-admin/bid-service/bid-soybean/src/main/resources/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C6416-03EB-A245-B1D5-9C08C5229D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAE0E0E-DE6D-A24E-8820-47B93303139F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7160" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>当日新增来工作地人员总数</t>
   </si>
   <si>
-    <t>从湖北省或途径湖北来工作地员工人数</t>
-  </si>
-  <si>
     <t>从湖北省以外地区来工作地员工人数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -168,6 +165,10 @@
   </si>
   <si>
     <t>在工作地人员累计总数(含当日新增) (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从湖北省或途经湖北来工作地员工人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -664,10 +665,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -678,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -692,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -701,31 +702,31 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>3</v>
@@ -777,22 +778,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>8</v>
@@ -801,31 +802,31 @@
         <v>9</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>11</v>
@@ -834,22 +835,22 @@
         <v>12</v>
       </c>
       <c r="U5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>13</v>
